--- a/员工归档/工作输出/杨晨/收费标准.xlsx
+++ b/员工归档/工作输出/杨晨/收费标准.xlsx
@@ -17,9 +17,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
-  <si>
-    <t>团队目标</t>
-  </si>
   <si>
     <t>部门</t>
   </si>
@@ -152,6 +149,10 @@
   </si>
   <si>
     <t>英语</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>收费标准</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -635,17 +636,18 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="6" width="13.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.125" style="1" customWidth="1"/>
+    <col min="2" max="6" width="13.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -655,68 +657,68 @@
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2">
+        <v>400</v>
+      </c>
+      <c r="E3" s="4">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="2">
-        <v>400</v>
-      </c>
-      <c r="E3" s="4">
-        <v>10</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
+        <v>400</v>
+      </c>
+      <c r="E4" s="4">
+        <v>10</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2">
-        <v>400</v>
-      </c>
-      <c r="E4" s="4">
-        <v>10</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E5" s="4">
         <v>24</v>
@@ -726,10 +728,10 @@
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
       <c r="B6" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2">
         <v>400</v>
@@ -743,7 +745,7 @@
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2">
         <v>400</v>
@@ -757,10 +759,10 @@
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E8" s="4">
         <v>24</v>
@@ -770,10 +772,10 @@
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
       <c r="B9" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2">
         <v>400</v>
@@ -787,7 +789,7 @@
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2">
         <v>400</v>
@@ -801,7 +803,7 @@
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2">
         <v>400</v>
@@ -811,45 +813,45 @@
       </c>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E12" s="4">
         <v>24</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="11"/>
       <c r="B13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2">
+        <v>400</v>
+      </c>
+      <c r="E13" s="4">
+        <v>10</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>18</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2">
-        <v>400</v>
-      </c>
-      <c r="E13" s="4">
-        <v>10</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="2">
         <v>400</v>
@@ -863,7 +865,7 @@
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="2">
         <v>400</v>
@@ -877,10 +879,10 @@
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E16" s="4">
         <v>24</v>
@@ -890,10 +892,10 @@
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="11"/>
       <c r="B17" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2">
         <v>400</v>
@@ -907,7 +909,7 @@
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="C18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2">
         <v>400</v>
@@ -921,7 +923,7 @@
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="C19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" s="2">
         <v>400</v>
@@ -935,10 +937,10 @@
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="C20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E20" s="4">
         <v>24</v>
@@ -948,10 +950,10 @@
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="11"/>
       <c r="B21" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="2">
         <v>400</v>
@@ -965,7 +967,7 @@
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="2">
         <v>400</v>
@@ -979,7 +981,7 @@
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" s="2">
         <v>400</v>
@@ -989,14 +991,14 @@
       </c>
       <c r="F23" s="13"/>
     </row>
-    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E24" s="4">
         <v>24</v>
@@ -1005,13 +1007,13 @@
     </row>
     <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>24</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" s="2">
         <v>500</v>
@@ -1020,14 +1022,14 @@
         <v>18</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="12"/>
       <c r="B26" s="11"/>
       <c r="C26" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26" s="2">
         <v>500</v>
@@ -1041,10 +1043,10 @@
       <c r="A27" s="12"/>
       <c r="B27" s="11"/>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E27" s="4">
         <v>40</v>
@@ -1054,10 +1056,10 @@
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="12"/>
       <c r="B28" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" s="2">
         <v>500</v>
@@ -1071,7 +1073,7 @@
       <c r="A29" s="12"/>
       <c r="B29" s="11"/>
       <c r="C29" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2">
         <v>500</v>
@@ -1085,7 +1087,7 @@
       <c r="A30" s="12"/>
       <c r="B30" s="11"/>
       <c r="C30" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D30" s="2">
         <v>500</v>
@@ -1099,10 +1101,10 @@
       <c r="A31" s="12"/>
       <c r="B31" s="11"/>
       <c r="C31" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E31" s="4">
         <v>40</v>
@@ -1112,10 +1114,10 @@
     <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="12"/>
       <c r="B32" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" s="2">
         <v>500</v>
@@ -1129,7 +1131,7 @@
       <c r="A33" s="12"/>
       <c r="B33" s="11"/>
       <c r="C33" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2">
         <v>500</v>
@@ -1143,7 +1145,7 @@
       <c r="A34" s="12"/>
       <c r="B34" s="11"/>
       <c r="C34" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D34" s="2">
         <v>500</v>
@@ -1157,7 +1159,7 @@
       <c r="A35" s="12"/>
       <c r="B35" s="11"/>
       <c r="C35" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D35" s="2">
         <v>500</v>
@@ -1171,10 +1173,10 @@
       <c r="A36" s="12"/>
       <c r="B36" s="11"/>
       <c r="C36" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E36" s="4">
         <v>40</v>
@@ -1201,7 +1203,7 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
